--- a/solution-template/sample-provider/sample-category/sample-solution/delivery/requirements.xlsx
+++ b/solution-template/sample-provider/sample-category/sample-solution/delivery/requirements.xlsx
@@ -619,7 +619,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>November 03, 2025</t>
+          <t>November 09, 2025</t>
         </is>
       </c>
     </row>

--- a/solution-template/sample-provider/sample-category/sample-solution/delivery/requirements.xlsx
+++ b/solution-template/sample-provider/sample-category/sample-solution/delivery/requirements.xlsx
@@ -207,10 +207,10 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>2</row>
+      <row>14</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1428750" cy="476250"/>
+    <ext cx="1143000" cy="285750"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -218,62 +218,6 @@
       </nvPicPr>
       <blipFill>
         <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>12</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1428750" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="2" name="Image 2" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>14</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1905000" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="3" name="Image 3" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId3"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -595,7 +539,7 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1"/>
     <row r="2" ht="10" customHeight="1"/>
-    <row r="3" ht="60" customHeight="1"/>
+    <row r="3" ht="20" customHeight="1"/>
     <row r="4" ht="30" customHeight="1">
       <c r="B4" s="1" t="inlineStr">
         <is>
@@ -638,7 +582,7 @@
     <row r="9">
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Purpose:</t>
+          <t>Customer Name:</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
@@ -661,9 +605,9 @@
     </row>
     <row r="11" ht="20" customHeight="1"/>
     <row r="12" ht="10" customHeight="1"/>
-    <row r="13" ht="60" customHeight="1"/>
+    <row r="13" ht="10" customHeight="1"/>
     <row r="14" ht="10" customHeight="1"/>
-    <row r="15" ht="60" customHeight="1"/>
+    <row r="15" ht="40" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/solution-template/sample-provider/sample-category/sample-solution/delivery/requirements.xlsx
+++ b/solution-template/sample-provider/sample-category/sample-solution/delivery/requirements.xlsx
@@ -563,7 +563,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>November 09, 2025</t>
+          <t>November 10, 2025</t>
         </is>
       </c>
     </row>

--- a/solution-template/sample-provider/sample-category/sample-solution/delivery/requirements.xlsx
+++ b/solution-template/sample-provider/sample-category/sample-solution/delivery/requirements.xlsx
@@ -563,7 +563,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>November 10, 2025</t>
+          <t>November 11, 2025</t>
         </is>
       </c>
     </row>

--- a/solution-template/sample-provider/sample-category/sample-solution/delivery/requirements.xlsx
+++ b/solution-template/sample-provider/sample-category/sample-solution/delivery/requirements.xlsx
@@ -563,7 +563,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>November 11, 2025</t>
+          <t>November 15, 2025</t>
         </is>
       </c>
     </row>
@@ -901,7 +901,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="26" customHeight="1">
+    <row r="6">
       <c r="A6" s="6" t="inlineStr">
         <is>
           <t>REQ-005</t>
@@ -953,7 +953,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="26" customHeight="1">
+    <row r="7">
       <c r="A7" s="7" t="inlineStr">
         <is>
           <t>REQ-006</t>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="26" customHeight="1">
+    <row r="8">
       <c r="A8" s="6" t="inlineStr">
         <is>
           <t>REQ-007</t>
@@ -1057,7 +1057,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="26" customHeight="1">
+    <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
           <t>REQ-008</t>
@@ -1109,7 +1109,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="26" customHeight="1">
+    <row r="10">
       <c r="A10" s="6" t="inlineStr">
         <is>
           <t>REQ-009</t>
@@ -1161,7 +1161,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="26" customHeight="1">
+    <row r="11">
       <c r="A11" s="7" t="inlineStr">
         <is>
           <t>REQ-010</t>
@@ -1213,7 +1213,7 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="26" customHeight="1">
+    <row r="12">
       <c r="A12" s="6" t="inlineStr">
         <is>
           <t>REQ-011</t>
@@ -1265,7 +1265,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="26" customHeight="1">
+    <row r="13">
       <c r="A13" s="7" t="inlineStr">
         <is>
           <t>REQ-012</t>
@@ -1317,7 +1317,7 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="26" customHeight="1">
+    <row r="14">
       <c r="A14" s="6" t="inlineStr">
         <is>
           <t>REQ-013</t>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="26" customHeight="1">
+    <row r="15">
       <c r="A15" s="7" t="inlineStr">
         <is>
           <t>REQ-014</t>
@@ -1421,7 +1421,7 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="26" customHeight="1">
+    <row r="16">
       <c r="A16" s="6" t="inlineStr">
         <is>
           <t>REQ-015</t>
@@ -1473,7 +1473,7 @@
         </is>
       </c>
     </row>
-    <row r="17" ht="26" customHeight="1">
+    <row r="17">
       <c r="A17" s="7" t="inlineStr">
         <is>
           <t>REQ-016</t>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
     </row>
-    <row r="18" ht="26" customHeight="1">
+    <row r="18">
       <c r="A18" s="6" t="inlineStr">
         <is>
           <t>REQ-017</t>
@@ -1577,7 +1577,7 @@
         </is>
       </c>
     </row>
-    <row r="19" ht="26" customHeight="1">
+    <row r="19">
       <c r="A19" s="7" t="inlineStr">
         <is>
           <t>REQ-018</t>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="26" customHeight="1">
+    <row r="20">
       <c r="A20" s="6" t="inlineStr">
         <is>
           <t>REQ-019</t>
@@ -1681,7 +1681,7 @@
         </is>
       </c>
     </row>
-    <row r="21" ht="26" customHeight="1">
+    <row r="21">
       <c r="A21" s="7" t="inlineStr">
         <is>
           <t>REQ-020</t>
@@ -1733,7 +1733,7 @@
         </is>
       </c>
     </row>
-    <row r="22" ht="26" customHeight="1">
+    <row r="22">
       <c r="A22" s="6" t="inlineStr">
         <is>
           <t>REQ-021</t>
@@ -1785,7 +1785,7 @@
         </is>
       </c>
     </row>
-    <row r="23" ht="26" customHeight="1">
+    <row r="23">
       <c r="A23" s="7" t="inlineStr">
         <is>
           <t>REQ-022</t>
@@ -1837,7 +1837,7 @@
         </is>
       </c>
     </row>
-    <row r="24" ht="26" customHeight="1">
+    <row r="24">
       <c r="A24" s="6" t="inlineStr">
         <is>
           <t>REQ-023</t>
@@ -1889,7 +1889,7 @@
         </is>
       </c>
     </row>
-    <row r="25" ht="26" customHeight="1">
+    <row r="25">
       <c r="A25" s="7" t="inlineStr">
         <is>
           <t>REQ-024</t>
@@ -1941,7 +1941,7 @@
         </is>
       </c>
     </row>
-    <row r="26" ht="26" customHeight="1">
+    <row r="26">
       <c r="A26" s="6" t="inlineStr">
         <is>
           <t>REQ-025</t>
@@ -1993,7 +1993,7 @@
         </is>
       </c>
     </row>
-    <row r="27" ht="26" customHeight="1">
+    <row r="27">
       <c r="A27" s="7" t="inlineStr">
         <is>
           <t>REQ-026</t>
@@ -2045,7 +2045,7 @@
         </is>
       </c>
     </row>
-    <row r="28" ht="26" customHeight="1">
+    <row r="28">
       <c r="A28" s="6" t="inlineStr">
         <is>
           <t>REQ-027</t>
@@ -2097,7 +2097,7 @@
         </is>
       </c>
     </row>
-    <row r="29" ht="26" customHeight="1">
+    <row r="29">
       <c r="A29" s="7" t="inlineStr">
         <is>
           <t>REQ-028</t>
@@ -2149,7 +2149,7 @@
         </is>
       </c>
     </row>
-    <row r="30" ht="26" customHeight="1">
+    <row r="30">
       <c r="A30" s="6" t="inlineStr">
         <is>
           <t>REQ-029</t>
@@ -2201,7 +2201,7 @@
         </is>
       </c>
     </row>
-    <row r="31" ht="26" customHeight="1">
+    <row r="31">
       <c r="A31" s="7" t="inlineStr">
         <is>
           <t>REQ-030</t>
@@ -2253,7 +2253,7 @@
         </is>
       </c>
     </row>
-    <row r="32" ht="26" customHeight="1">
+    <row r="32">
       <c r="A32" s="6" t="inlineStr">
         <is>
           <t>REQ-031</t>

--- a/solution-template/sample-provider/sample-category/sample-solution/delivery/requirements.xlsx
+++ b/solution-template/sample-provider/sample-category/sample-solution/delivery/requirements.xlsx
@@ -12,6 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Requirements'!$A$1:$J$32</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'Requirements'!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -19,8 +20,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="7">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="12">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -29,26 +32,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <name val="Segoe UI"/>
+      <color rgb="0095A5A6"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Segoe UI Light"/>
+      <color rgb="002C3E50"/>
+      <sz val="28"/>
+    </font>
+    <font>
+      <name val="Segoe UI"/>
+      <color rgb="005D6D7E"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <name val="Segoe UI"/>
       <b val="1"/>
-      <color rgb="001F4E78"/>
-      <sz val="24"/>
+      <color rgb="005D6D7E"/>
+      <sz val="12"/>
     </font>
     <font>
       <name val="Calibri"/>
-      <color rgb="0044546A"/>
-      <sz val="14"/>
+      <color rgb="002C3E50"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Segoe UI"/>
+      <b val="1"/>
+      <color rgb="00CC0000"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="005D6D7E"/>
+      <sz val="11"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <name val="Segoe UI Semibold"/>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+      <sz val="12"/>
     </font>
     <font>
       <name val="Calibri"/>
       <b val="1"/>
-      <color rgb="0044546A"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <color rgb="0044546A"/>
-      <sz val="11"/>
+      <color rgb="00CC0000"/>
+      <sz val="12"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -62,12 +93,36 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CC0000"/>
+        <bgColor rgb="00CC0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002C3E50"/>
+        <bgColor rgb="002C3E50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F8FAFB"/>
+        <bgColor rgb="00F8FAFB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E8F4F8"/>
+        <bgColor rgb="00E8F4F8"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -88,13 +143,41 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00BDC3C7"/>
+      </left>
+      <right style="thin">
+        <color rgb="00BDC3C7"/>
+      </right>
+      <top style="thin">
+        <color rgb="00BDC3C7"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="002C3E50"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00DEE2E6"/>
+      </left>
+      <right style="thin">
+        <color rgb="00DEE2E6"/>
+      </right>
+      <top style="thin">
+        <color rgb="00DEE2E6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00DEE2E6"/>
+      </bottom>
     </border>
     <border>
       <left style="thin"/>
@@ -106,23 +189,65 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -207,10 +332,10 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>14</row>
+      <row>12</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1143000" cy="285750"/>
+    <ext cx="1238250" cy="314325"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -523,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B4:C10"/>
+  <dimension ref="B1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,83 +656,107 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="5" customWidth="1" min="1" max="1"/>
-    <col width="30" customWidth="1" min="2" max="2"/>
-    <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="5" customWidth="1" min="4" max="4"/>
+    <col width="3" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="40" customWidth="1" min="3" max="3"/>
+    <col width="3" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1"/>
-    <row r="2" ht="10" customHeight="1"/>
-    <row r="3" ht="20" customHeight="1"/>
-    <row r="4" ht="30" customHeight="1">
-      <c r="B4" s="1" t="inlineStr">
+    <row r="1" ht="15" customHeight="1">
+      <c r="B1" s="1" t="n"/>
+      <c r="C1" s="1" t="n"/>
+    </row>
+    <row r="2" ht="60" customHeight="1">
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>[VENDOR LOGO]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1"/>
+    <row r="4" ht="40" customHeight="1">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>Requirements</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="20" customHeight="1">
-      <c r="B5" s="2" t="inlineStr">
+    <row r="5" ht="25" customHeight="1">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>Delivery Document</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="20" customHeight="1"/>
-    <row r="7">
-      <c r="B7" s="3" t="inlineStr">
+    <row r="6" ht="30" customHeight="1"/>
+    <row r="7" ht="18" customHeight="1">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>Generated:</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>November 15, 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="3" t="inlineStr">
+      <c r="C7" s="6" t="inlineStr">
+        <is>
+          <t>November 16, 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>Solution:</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>Sample Solution</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>Customer Name:</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
+    <row r="9" ht="18" customHeight="1">
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Customer:</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr">
         <is>
           <t>Data table for requirements</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="B10" s="3" t="inlineStr">
+    <row r="10" ht="18" customHeight="1">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>Version:</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="C10" s="6" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="20" customHeight="1"/>
-    <row r="12" ht="10" customHeight="1"/>
-    <row r="13" ht="10" customHeight="1"/>
-    <row r="14" ht="10" customHeight="1"/>
-    <row r="15" ht="40" customHeight="1"/>
+    <row r="11" ht="18" customHeight="1">
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Status:</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr">
+        <is>
+          <t>DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="40" customHeight="1"/>
+    <row r="13" ht="30" customHeight="1">
+      <c r="C13" s="8" t="inlineStr">
+        <is>
+          <t>eoframework.org</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
@@ -618,7 +767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
@@ -642,1664 +791,1664 @@
   </cols>
   <sheetData>
     <row r="1" ht="32" customHeight="1">
-      <c r="A1" s="5" t="inlineStr">
+      <c r="A1" s="19" t="inlineStr">
         <is>
           <t>Requirement ID</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="19" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="19" t="inlineStr">
         <is>
           <t>Priority</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="19" t="inlineStr">
         <is>
           <t>Requirement Description</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="E1" s="19" t="inlineStr">
         <is>
           <t>Acceptance Criteria</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
+      <c r="F1" s="19" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
       </c>
-      <c r="G1" s="5" t="inlineStr">
+      <c r="G1" s="19" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="H1" s="5" t="inlineStr">
+      <c r="H1" s="19" t="inlineStr">
         <is>
           <t>Assigned To</t>
         </is>
       </c>
-      <c r="I1" s="5" t="inlineStr">
+      <c r="I1" s="19" t="inlineStr">
         <is>
           <t>Due Date</t>
         </is>
       </c>
-      <c r="J1" s="5" t="inlineStr">
+      <c r="J1" s="19" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
     </row>
     <row r="2" ht="26" customHeight="1">
-      <c r="A2" s="6" t="inlineStr">
+      <c r="A2" s="20" t="inlineStr">
         <is>
           <t>REQ-001</t>
         </is>
       </c>
-      <c r="B2" s="6" t="inlineStr">
+      <c r="B2" s="20" t="inlineStr">
         <is>
           <t>Functional</t>
         </is>
       </c>
-      <c r="C2" s="6" t="inlineStr">
+      <c r="C2" s="20" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="D2" s="6" t="inlineStr">
+      <c r="D2" s="20" t="inlineStr">
         <is>
           <t>User authentication and authorization system</t>
         </is>
       </c>
-      <c r="E2" s="6" t="inlineStr">
+      <c r="E2" s="20" t="inlineStr">
         <is>
           <t>Users can login with secure credentials and access appropriate resources based on role</t>
         </is>
       </c>
-      <c r="F2" s="6" t="inlineStr">
+      <c r="F2" s="20" t="inlineStr">
         <is>
           <t>Stakeholder Interview</t>
         </is>
       </c>
-      <c r="G2" s="6" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="H2" s="6" t="inlineStr">
+      <c r="G2" s="20" t="inlineStr">
+        <is>
+          <t>Draft</t>
+        </is>
+      </c>
+      <c r="H2" s="20" t="inlineStr">
         <is>
           <t>Solution Architect</t>
         </is>
       </c>
-      <c r="I2" s="6" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-      <c r="J2" s="6" t="inlineStr">
+      <c r="I2" s="20" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+      <c r="J2" s="20" t="inlineStr">
         <is>
           <t>Integration with existing identity provider required</t>
         </is>
       </c>
     </row>
     <row r="3" ht="26" customHeight="1">
-      <c r="A3" s="7" t="inlineStr">
+      <c r="A3" s="21" t="inlineStr">
         <is>
           <t>REQ-002</t>
         </is>
       </c>
-      <c r="B3" s="7" t="inlineStr">
+      <c r="B3" s="21" t="inlineStr">
         <is>
           <t>Functional</t>
         </is>
       </c>
-      <c r="C3" s="7" t="inlineStr">
+      <c r="C3" s="21" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="D3" s="7" t="inlineStr">
+      <c r="D3" s="21" t="inlineStr">
         <is>
           <t>Data import and export capabilities</t>
         </is>
       </c>
-      <c r="E3" s="7" t="inlineStr">
+      <c r="E3" s="21" t="inlineStr">
         <is>
           <t>System can import data from CSV/Excel and export reports in multiple formats</t>
         </is>
       </c>
-      <c r="F3" s="7" t="inlineStr">
+      <c r="F3" s="21" t="inlineStr">
         <is>
           <t>Business Case</t>
         </is>
       </c>
-      <c r="G3" s="7" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="H3" s="7" t="inlineStr">
+      <c r="G3" s="21" t="inlineStr">
+        <is>
+          <t>Draft</t>
+        </is>
+      </c>
+      <c r="H3" s="21" t="inlineStr">
         <is>
           <t>Development Team</t>
         </is>
       </c>
-      <c r="I3" s="7" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-      <c r="J3" s="7" t="inlineStr">
+      <c r="I3" s="21" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+      <c r="J3" s="21" t="inlineStr">
         <is>
           <t>Must support files up to 100MB</t>
         </is>
       </c>
     </row>
     <row r="4" ht="26" customHeight="1">
-      <c r="A4" s="6" t="inlineStr">
+      <c r="A4" s="20" t="inlineStr">
         <is>
           <t>REQ-003</t>
         </is>
       </c>
-      <c r="B4" s="6" t="inlineStr">
+      <c r="B4" s="20" t="inlineStr">
         <is>
           <t>Functional</t>
         </is>
       </c>
-      <c r="C4" s="6" t="inlineStr">
+      <c r="C4" s="20" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
-      <c r="D4" s="6" t="inlineStr">
+      <c r="D4" s="20" t="inlineStr">
         <is>
           <t>Real-time dashboard and reporting</t>
         </is>
       </c>
-      <c r="E4" s="6" t="inlineStr">
+      <c r="E4" s="20" t="inlineStr">
         <is>
           <t>Users can view live data updates and generate custom reports</t>
         </is>
       </c>
-      <c r="F4" s="6" t="inlineStr">
+      <c r="F4" s="20" t="inlineStr">
         <is>
           <t>Requirements Workshop</t>
         </is>
       </c>
-      <c r="G4" s="6" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="H4" s="6" t="inlineStr">
+      <c r="G4" s="20" t="inlineStr">
+        <is>
+          <t>Draft</t>
+        </is>
+      </c>
+      <c r="H4" s="20" t="inlineStr">
         <is>
           <t>UI/UX Designer</t>
         </is>
       </c>
-      <c r="I4" s="6" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-      <c r="J4" s="6" t="inlineStr">
+      <c r="I4" s="20" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+      <c r="J4" s="20" t="inlineStr">
         <is>
           <t>Mobile responsive design required</t>
         </is>
       </c>
     </row>
     <row r="5" ht="26" customHeight="1">
-      <c r="A5" s="7" t="inlineStr">
+      <c r="A5" s="21" t="inlineStr">
         <is>
           <t>REQ-004</t>
         </is>
       </c>
-      <c r="B5" s="7" t="inlineStr">
+      <c r="B5" s="21" t="inlineStr">
         <is>
           <t>Non-Functional</t>
         </is>
       </c>
-      <c r="C5" s="7" t="inlineStr">
+      <c r="C5" s="21" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="D5" s="7" t="inlineStr">
+      <c r="D5" s="21" t="inlineStr">
         <is>
           <t>System availability 99.9% uptime</t>
         </is>
       </c>
-      <c r="E5" s="7" t="inlineStr">
+      <c r="E5" s="21" t="inlineStr">
         <is>
           <t>System maintains 99.9% availability during business hours</t>
         </is>
       </c>
-      <c r="F5" s="7" t="inlineStr">
+      <c r="F5" s="21" t="inlineStr">
         <is>
           <t>SLA Requirements</t>
         </is>
       </c>
-      <c r="G5" s="7" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="H5" s="7" t="inlineStr">
+      <c r="G5" s="21" t="inlineStr">
+        <is>
+          <t>Draft</t>
+        </is>
+      </c>
+      <c r="H5" s="21" t="inlineStr">
         <is>
           <t>Infrastructure Team</t>
         </is>
       </c>
-      <c r="I5" s="7" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-      <c r="J5" s="7" t="inlineStr">
+      <c r="I5" s="21" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+      <c r="J5" s="21" t="inlineStr">
         <is>
           <t>Monitoring and alerting setup required</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="6" t="inlineStr">
+    <row r="6" ht="26" customHeight="1">
+      <c r="A6" s="20" t="inlineStr">
         <is>
           <t>REQ-005</t>
         </is>
       </c>
-      <c r="B6" s="6" t="inlineStr">
+      <c r="B6" s="20" t="inlineStr">
         <is>
           <t>Non-Functional</t>
         </is>
       </c>
-      <c r="C6" s="6" t="inlineStr">
+      <c r="C6" s="20" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="D6" s="6" t="inlineStr">
+      <c r="D6" s="20" t="inlineStr">
         <is>
           <t>Response time under 2 seconds</t>
         </is>
       </c>
-      <c r="E6" s="6" t="inlineStr">
+      <c r="E6" s="20" t="inlineStr">
         <is>
           <t>All user interactions complete within 2 seconds</t>
         </is>
       </c>
-      <c r="F6" s="6" t="inlineStr">
+      <c r="F6" s="20" t="inlineStr">
         <is>
           <t>Performance Requirements</t>
         </is>
       </c>
-      <c r="G6" s="6" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="H6" s="6" t="inlineStr">
+      <c r="G6" s="20" t="inlineStr">
+        <is>
+          <t>Draft</t>
+        </is>
+      </c>
+      <c r="H6" s="20" t="inlineStr">
         <is>
           <t>Performance Engineer</t>
         </is>
       </c>
-      <c r="I6" s="6" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-      <c r="J6" s="6" t="inlineStr">
+      <c r="I6" s="20" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+      <c r="J6" s="20" t="inlineStr">
         <is>
           <t>Load testing required for 1000 concurrent users</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="inlineStr">
+      <c r="A7" s="21" t="inlineStr">
         <is>
           <t>REQ-006</t>
         </is>
       </c>
-      <c r="B7" s="7" t="inlineStr">
+      <c r="B7" s="21" t="inlineStr">
         <is>
           <t>Non-Functional</t>
         </is>
       </c>
-      <c r="C7" s="7" t="inlineStr">
+      <c r="C7" s="21" t="inlineStr">
         <is>
           <t>Critical</t>
         </is>
       </c>
-      <c r="D7" s="7" t="inlineStr">
+      <c r="D7" s="21" t="inlineStr">
         <is>
           <t>Data encryption at rest and in transit</t>
         </is>
       </c>
-      <c r="E7" s="7" t="inlineStr">
+      <c r="E7" s="21" t="inlineStr">
         <is>
           <t>All sensitive data encrypted using industry standards</t>
         </is>
       </c>
-      <c r="F7" s="7" t="inlineStr">
+      <c r="F7" s="21" t="inlineStr">
         <is>
           <t>Security Requirements</t>
         </is>
       </c>
-      <c r="G7" s="7" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="H7" s="7" t="inlineStr">
+      <c r="G7" s="21" t="inlineStr">
+        <is>
+          <t>Draft</t>
+        </is>
+      </c>
+      <c r="H7" s="21" t="inlineStr">
         <is>
           <t>Security Team</t>
         </is>
       </c>
-      <c r="I7" s="7" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-      <c r="J7" s="7" t="inlineStr">
+      <c r="I7" s="21" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+      <c r="J7" s="21" t="inlineStr">
         <is>
           <t>Compliance with SOC 2 and ISO 27001</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="inlineStr">
+      <c r="A8" s="20" t="inlineStr">
         <is>
           <t>REQ-007</t>
         </is>
       </c>
-      <c r="B8" s="6" t="inlineStr">
+      <c r="B8" s="20" t="inlineStr">
         <is>
           <t>Integration</t>
         </is>
       </c>
-      <c r="C8" s="6" t="inlineStr">
+      <c r="C8" s="20" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="D8" s="6" t="inlineStr">
+      <c r="D8" s="20" t="inlineStr">
         <is>
           <t>Integration with existing CRM system</t>
         </is>
       </c>
-      <c r="E8" s="6" t="inlineStr">
+      <c r="E8" s="20" t="inlineStr">
         <is>
           <t>Bidirectional data sync with customer CRM platform</t>
         </is>
       </c>
-      <c r="F8" s="6" t="inlineStr">
+      <c r="F8" s="20" t="inlineStr">
         <is>
           <t>System Integration</t>
         </is>
       </c>
-      <c r="G8" s="6" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="H8" s="6" t="inlineStr">
+      <c r="G8" s="20" t="inlineStr">
+        <is>
+          <t>Draft</t>
+        </is>
+      </c>
+      <c r="H8" s="20" t="inlineStr">
         <is>
           <t>Integration Specialist</t>
         </is>
       </c>
-      <c r="I8" s="6" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-      <c r="J8" s="6" t="inlineStr">
+      <c r="I8" s="20" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+      <c r="J8" s="20" t="inlineStr">
         <is>
           <t>API rate limits and error handling required</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="inlineStr">
+      <c r="A9" s="21" t="inlineStr">
         <is>
           <t>REQ-008</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
+      <c r="B9" s="21" t="inlineStr">
         <is>
           <t>Integration</t>
         </is>
       </c>
-      <c r="C9" s="7" t="inlineStr">
+      <c r="C9" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
-      <c r="D9" s="7" t="inlineStr">
+      <c r="D9" s="21" t="inlineStr">
         <is>
           <t>Single Sign-On (SSO) integration</t>
         </is>
       </c>
-      <c r="E9" s="7" t="inlineStr">
+      <c r="E9" s="21" t="inlineStr">
         <is>
           <t>Users authenticate through existing SSO provider</t>
         </is>
       </c>
-      <c r="F9" s="7" t="inlineStr">
+      <c r="F9" s="21" t="inlineStr">
         <is>
           <t>IT Requirements</t>
         </is>
       </c>
-      <c r="G9" s="7" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="H9" s="7" t="inlineStr">
+      <c r="G9" s="21" t="inlineStr">
+        <is>
+          <t>Draft</t>
+        </is>
+      </c>
+      <c r="H9" s="21" t="inlineStr">
         <is>
           <t>Identity Team</t>
         </is>
       </c>
-      <c r="I9" s="7" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-      <c r="J9" s="7" t="inlineStr">
+      <c r="I9" s="21" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+      <c r="J9" s="21" t="inlineStr">
         <is>
           <t>Support for SAML 2.0 and OAuth 2.0</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="inlineStr">
+      <c r="A10" s="20" t="inlineStr">
         <is>
           <t>REQ-009</t>
         </is>
       </c>
-      <c r="B10" s="6" t="inlineStr">
+      <c r="B10" s="20" t="inlineStr">
         <is>
           <t>Compliance</t>
         </is>
       </c>
-      <c r="C10" s="6" t="inlineStr">
+      <c r="C10" s="20" t="inlineStr">
         <is>
           <t>Critical</t>
         </is>
       </c>
-      <c r="D10" s="6" t="inlineStr">
+      <c r="D10" s="20" t="inlineStr">
         <is>
           <t>GDPR compliance for data handling</t>
         </is>
       </c>
-      <c r="E10" s="6" t="inlineStr">
+      <c r="E10" s="20" t="inlineStr">
         <is>
           <t>System handles personal data according to GDPR requirements</t>
         </is>
       </c>
-      <c r="F10" s="6" t="inlineStr">
+      <c r="F10" s="20" t="inlineStr">
         <is>
           <t>Legal Requirements</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="H10" s="6" t="inlineStr">
+      <c r="G10" s="20" t="inlineStr">
+        <is>
+          <t>Draft</t>
+        </is>
+      </c>
+      <c r="H10" s="20" t="inlineStr">
         <is>
           <t>Compliance Officer</t>
         </is>
       </c>
-      <c r="I10" s="6" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-      <c r="J10" s="6" t="inlineStr">
+      <c r="I10" s="20" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+      <c r="J10" s="20" t="inlineStr">
         <is>
           <t>Data retention and deletion policies required</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="inlineStr">
+      <c r="A11" s="21" t="inlineStr">
         <is>
           <t>REQ-010</t>
         </is>
       </c>
-      <c r="B11" s="7" t="inlineStr">
+      <c r="B11" s="21" t="inlineStr">
         <is>
           <t>Operational</t>
         </is>
       </c>
-      <c r="C11" s="7" t="inlineStr">
+      <c r="C11" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
-      <c r="D11" s="7" t="inlineStr">
+      <c r="D11" s="21" t="inlineStr">
         <is>
           <t>Automated backup and recovery</t>
         </is>
       </c>
-      <c r="E11" s="7" t="inlineStr">
+      <c r="E11" s="21" t="inlineStr">
         <is>
           <t>Daily automated backups with 4-hour recovery time</t>
         </is>
       </c>
-      <c r="F11" s="7" t="inlineStr">
+      <c r="F11" s="21" t="inlineStr">
         <is>
           <t>Business Continuity</t>
         </is>
       </c>
-      <c r="G11" s="7" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="H11" s="7" t="inlineStr">
+      <c r="G11" s="21" t="inlineStr">
+        <is>
+          <t>Draft</t>
+        </is>
+      </c>
+      <c r="H11" s="21" t="inlineStr">
         <is>
           <t>Operations Team</t>
         </is>
       </c>
-      <c r="I11" s="7" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-      <c r="J11" s="7" t="inlineStr">
+      <c r="I11" s="21" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+      <c r="J11" s="21" t="inlineStr">
         <is>
           <t>Test recovery procedures quarterly</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="inlineStr">
+      <c r="A12" s="20" t="inlineStr">
         <is>
           <t>REQ-011</t>
         </is>
       </c>
-      <c r="B12" s="6" t="inlineStr">
+      <c r="B12" s="20" t="inlineStr">
         <is>
           <t>Functional</t>
         </is>
       </c>
-      <c r="C12" s="6" t="inlineStr">
+      <c r="C12" s="20" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="D12" s="6" t="inlineStr">
+      <c r="D12" s="20" t="inlineStr">
         <is>
           <t>Multi-language support</t>
         </is>
       </c>
-      <c r="E12" s="6" t="inlineStr">
+      <c r="E12" s="20" t="inlineStr">
         <is>
           <t>Interface available in English, Spanish, and French</t>
         </is>
       </c>
-      <c r="F12" s="6" t="inlineStr">
+      <c r="F12" s="20" t="inlineStr">
         <is>
           <t>User Requirements</t>
         </is>
       </c>
-      <c r="G12" s="6" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="H12" s="6" t="inlineStr">
+      <c r="G12" s="20" t="inlineStr">
+        <is>
+          <t>Draft</t>
+        </is>
+      </c>
+      <c r="H12" s="20" t="inlineStr">
         <is>
           <t>Localization Team</t>
         </is>
       </c>
-      <c r="I12" s="6" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-      <c r="J12" s="6" t="inlineStr">
+      <c r="I12" s="20" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+      <c r="J12" s="20" t="inlineStr">
         <is>
           <t>Phase 2 implementation consideration</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="inlineStr">
+      <c r="A13" s="21" t="inlineStr">
         <is>
           <t>REQ-012</t>
         </is>
       </c>
-      <c r="B13" s="7" t="inlineStr">
+      <c r="B13" s="21" t="inlineStr">
         <is>
           <t>Non-Functional</t>
         </is>
       </c>
-      <c r="C13" s="7" t="inlineStr">
+      <c r="C13" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
-      <c r="D13" s="7" t="inlineStr">
+      <c r="D13" s="21" t="inlineStr">
         <is>
           <t>Mobile application support</t>
         </is>
       </c>
-      <c r="E13" s="7" t="inlineStr">
+      <c r="E13" s="21" t="inlineStr">
         <is>
           <t>Native mobile apps for iOS and Android platforms</t>
         </is>
       </c>
-      <c r="F13" s="7" t="inlineStr">
+      <c r="F13" s="21" t="inlineStr">
         <is>
           <t>Mobile Strategy</t>
         </is>
       </c>
-      <c r="G13" s="7" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="H13" s="7" t="inlineStr">
+      <c r="G13" s="21" t="inlineStr">
+        <is>
+          <t>Draft</t>
+        </is>
+      </c>
+      <c r="H13" s="21" t="inlineStr">
         <is>
           <t>Mobile Development</t>
         </is>
       </c>
-      <c r="I13" s="7" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-      <c r="J13" s="7" t="inlineStr">
+      <c r="I13" s="21" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+      <c r="J13" s="21" t="inlineStr">
         <is>
           <t>Responsive web app may be sufficient initially</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="inlineStr">
+      <c r="A14" s="20" t="inlineStr">
         <is>
           <t>REQ-013</t>
         </is>
       </c>
-      <c r="B14" s="6" t="inlineStr">
+      <c r="B14" s="20" t="inlineStr">
         <is>
           <t>Infrastructure</t>
         </is>
       </c>
-      <c r="C14" s="6" t="inlineStr">
+      <c r="C14" s="20" t="inlineStr">
         <is>
           <t>Critical</t>
         </is>
       </c>
-      <c r="D14" s="6" t="inlineStr">
+      <c r="D14" s="20" t="inlineStr">
         <is>
           <t>Minimum hardware specifications</t>
         </is>
       </c>
-      <c r="E14" s="6" t="inlineStr">
+      <c r="E14" s="20" t="inlineStr">
         <is>
           <t>CPU: 8 cores, RAM: 32GB, Storage: 1TB SSD</t>
         </is>
       </c>
-      <c r="F14" s="6" t="inlineStr">
+      <c r="F14" s="20" t="inlineStr">
         <is>
           <t>Technical Requirements</t>
         </is>
       </c>
-      <c r="G14" s="6" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="H14" s="6" t="inlineStr">
+      <c r="G14" s="20" t="inlineStr">
+        <is>
+          <t>Draft</t>
+        </is>
+      </c>
+      <c r="H14" s="20" t="inlineStr">
         <is>
           <t>Infrastructure Team</t>
         </is>
       </c>
-      <c r="I14" s="6" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-      <c r="J14" s="6" t="inlineStr">
+      <c r="I14" s="20" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+      <c r="J14" s="20" t="inlineStr">
         <is>
           <t>Hardware procurement lead time considerations</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="inlineStr">
+      <c r="A15" s="21" t="inlineStr">
         <is>
           <t>REQ-014</t>
         </is>
       </c>
-      <c r="B15" s="7" t="inlineStr">
+      <c r="B15" s="21" t="inlineStr">
         <is>
           <t>Infrastructure</t>
         </is>
       </c>
-      <c r="C15" s="7" t="inlineStr">
+      <c r="C15" s="21" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="D15" s="7" t="inlineStr">
+      <c r="D15" s="21" t="inlineStr">
         <is>
           <t>Network connectivity requirements</t>
         </is>
       </c>
-      <c r="E15" s="7" t="inlineStr">
+      <c r="E15" s="21" t="inlineStr">
         <is>
           <t>Dedicated internet connection with 100Mbps bandwidth minimum</t>
         </is>
       </c>
-      <c r="F15" s="7" t="inlineStr">
+      <c r="F15" s="21" t="inlineStr">
         <is>
           <t>Network Requirements</t>
         </is>
       </c>
-      <c r="G15" s="7" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="H15" s="7" t="inlineStr">
+      <c r="G15" s="21" t="inlineStr">
+        <is>
+          <t>Draft</t>
+        </is>
+      </c>
+      <c r="H15" s="21" t="inlineStr">
         <is>
           <t>Network Team</t>
         </is>
       </c>
-      <c r="I15" s="7" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-      <c r="J15" s="7" t="inlineStr">
+      <c r="I15" s="21" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+      <c r="J15" s="21" t="inlineStr">
         <is>
           <t>Redundant connections recommended for production</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="inlineStr">
+      <c r="A16" s="20" t="inlineStr">
         <is>
           <t>REQ-015</t>
         </is>
       </c>
-      <c r="B16" s="6" t="inlineStr">
+      <c r="B16" s="20" t="inlineStr">
         <is>
           <t>Infrastructure</t>
         </is>
       </c>
-      <c r="C16" s="6" t="inlineStr">
+      <c r="C16" s="20" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="D16" s="6" t="inlineStr">
+      <c r="D16" s="20" t="inlineStr">
         <is>
           <t>Storage capacity and performance</t>
         </is>
       </c>
-      <c r="E16" s="6" t="inlineStr">
+      <c r="E16" s="20" t="inlineStr">
         <is>
           <t>High-performance storage with IOPS &gt; 10,000 and 5TB capacity</t>
         </is>
       </c>
-      <c r="F16" s="6" t="inlineStr">
+      <c r="F16" s="20" t="inlineStr">
         <is>
           <t>Storage Requirements</t>
         </is>
       </c>
-      <c r="G16" s="6" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="H16" s="6" t="inlineStr">
+      <c r="G16" s="20" t="inlineStr">
+        <is>
+          <t>Draft</t>
+        </is>
+      </c>
+      <c r="H16" s="20" t="inlineStr">
         <is>
           <t>Storage Team</t>
         </is>
       </c>
-      <c r="I16" s="6" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-      <c r="J16" s="6" t="inlineStr">
+      <c r="I16" s="20" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+      <c r="J16" s="20" t="inlineStr">
         <is>
           <t>Consider cloud storage alternatives</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="7" t="inlineStr">
+      <c r="A17" s="21" t="inlineStr">
         <is>
           <t>REQ-016</t>
         </is>
       </c>
-      <c r="B17" s="7" t="inlineStr">
+      <c r="B17" s="21" t="inlineStr">
         <is>
           <t>Infrastructure</t>
         </is>
       </c>
-      <c r="C17" s="7" t="inlineStr">
+      <c r="C17" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
-      <c r="D17" s="7" t="inlineStr">
+      <c r="D17" s="21" t="inlineStr">
         <is>
           <t>Compute resource allocation</t>
         </is>
       </c>
-      <c r="E17" s="7" t="inlineStr">
+      <c r="E17" s="21" t="inlineStr">
         <is>
           <t>Scalable compute resources supporting auto-scaling policies</t>
         </is>
       </c>
-      <c r="F17" s="7" t="inlineStr">
+      <c r="F17" s="21" t="inlineStr">
         <is>
           <t>Compute Requirements</t>
         </is>
       </c>
-      <c r="G17" s="7" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="H17" s="7" t="inlineStr">
+      <c r="G17" s="21" t="inlineStr">
+        <is>
+          <t>Draft</t>
+        </is>
+      </c>
+      <c r="H17" s="21" t="inlineStr">
         <is>
           <t>Cloud Team</t>
         </is>
       </c>
-      <c r="I17" s="7" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-      <c r="J17" s="7" t="inlineStr">
+      <c r="I17" s="21" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+      <c r="J17" s="21" t="inlineStr">
         <is>
           <t>Monitor resource utilization patterns</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="inlineStr">
+      <c r="A18" s="20" t="inlineStr">
         <is>
           <t>REQ-017</t>
         </is>
       </c>
-      <c r="B18" s="6" t="inlineStr">
+      <c r="B18" s="20" t="inlineStr">
         <is>
           <t>Software</t>
         </is>
       </c>
-      <c r="C18" s="6" t="inlineStr">
+      <c r="C18" s="20" t="inlineStr">
         <is>
           <t>Critical</t>
         </is>
       </c>
-      <c r="D18" s="6" t="inlineStr">
+      <c r="D18" s="20" t="inlineStr">
         <is>
           <t>Operating system compatibility</t>
         </is>
       </c>
-      <c r="E18" s="6" t="inlineStr">
+      <c r="E18" s="20" t="inlineStr">
         <is>
           <t>Support for Windows Server 2019+, Ubuntu 20.04+, RHEL 8+</t>
         </is>
       </c>
-      <c r="F18" s="6" t="inlineStr">
+      <c r="F18" s="20" t="inlineStr">
         <is>
           <t>OS Requirements</t>
         </is>
       </c>
-      <c r="G18" s="6" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="H18" s="6" t="inlineStr">
+      <c r="G18" s="20" t="inlineStr">
+        <is>
+          <t>Draft</t>
+        </is>
+      </c>
+      <c r="H18" s="20" t="inlineStr">
         <is>
           <t>Systems Team</t>
         </is>
       </c>
-      <c r="I18" s="6" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-      <c r="J18" s="6" t="inlineStr">
+      <c r="I18" s="20" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+      <c r="J18" s="20" t="inlineStr">
         <is>
           <t>Include container runtime compatibility</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="7" t="inlineStr">
+      <c r="A19" s="21" t="inlineStr">
         <is>
           <t>REQ-018</t>
         </is>
       </c>
-      <c r="B19" s="7" t="inlineStr">
+      <c r="B19" s="21" t="inlineStr">
         <is>
           <t>Software</t>
         </is>
       </c>
-      <c r="C19" s="7" t="inlineStr">
+      <c r="C19" s="21" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="D19" s="7" t="inlineStr">
+      <c r="D19" s="21" t="inlineStr">
         <is>
           <t>Required software dependencies</t>
         </is>
       </c>
-      <c r="E19" s="7" t="inlineStr">
+      <c r="E19" s="21" t="inlineStr">
         <is>
           <t>Specific versions of runtime environments and libraries</t>
         </is>
       </c>
-      <c r="F19" s="7" t="inlineStr">
+      <c r="F19" s="21" t="inlineStr">
         <is>
           <t>Dependency Requirements</t>
         </is>
       </c>
-      <c r="G19" s="7" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="H19" s="7" t="inlineStr">
+      <c r="G19" s="21" t="inlineStr">
+        <is>
+          <t>Draft</t>
+        </is>
+      </c>
+      <c r="H19" s="21" t="inlineStr">
         <is>
           <t>Development Team</t>
         </is>
       </c>
-      <c r="I19" s="7" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-      <c r="J19" s="7" t="inlineStr">
+      <c r="I19" s="21" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+      <c r="J19" s="21" t="inlineStr">
         <is>
           <t>Maintain dependency version matrix</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="inlineStr">
+      <c r="A20" s="20" t="inlineStr">
         <is>
           <t>REQ-019</t>
         </is>
       </c>
-      <c r="B20" s="6" t="inlineStr">
+      <c r="B20" s="20" t="inlineStr">
         <is>
           <t>Software</t>
         </is>
       </c>
-      <c r="C20" s="6" t="inlineStr">
+      <c r="C20" s="20" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="D20" s="6" t="inlineStr">
+      <c r="D20" s="20" t="inlineStr">
         <is>
           <t>Development and deployment tools</t>
         </is>
       </c>
-      <c r="E20" s="6" t="inlineStr">
+      <c r="E20" s="20" t="inlineStr">
         <is>
           <t>CI/CD pipeline tools, monitoring, and management software</t>
         </is>
       </c>
-      <c r="F20" s="6" t="inlineStr">
+      <c r="F20" s="20" t="inlineStr">
         <is>
           <t>Tooling Requirements</t>
         </is>
       </c>
-      <c r="G20" s="6" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="H20" s="6" t="inlineStr">
+      <c r="G20" s="20" t="inlineStr">
+        <is>
+          <t>Draft</t>
+        </is>
+      </c>
+      <c r="H20" s="20" t="inlineStr">
         <is>
           <t>DevOps Team</t>
         </is>
       </c>
-      <c r="I20" s="6" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-      <c r="J20" s="6" t="inlineStr">
+      <c r="I20" s="20" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+      <c r="J20" s="20" t="inlineStr">
         <is>
           <t>Tool licensing and maintenance costs</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="7" t="inlineStr">
+      <c r="A21" s="21" t="inlineStr">
         <is>
           <t>REQ-020</t>
         </is>
       </c>
-      <c r="B21" s="7" t="inlineStr">
+      <c r="B21" s="21" t="inlineStr">
         <is>
           <t>Access</t>
         </is>
       </c>
-      <c r="C21" s="7" t="inlineStr">
+      <c r="C21" s="21" t="inlineStr">
         <is>
           <t>Critical</t>
         </is>
       </c>
-      <c r="D21" s="7" t="inlineStr">
+      <c r="D21" s="21" t="inlineStr">
         <is>
           <t>Administrative account permissions</t>
         </is>
       </c>
-      <c r="E21" s="7" t="inlineStr">
+      <c r="E21" s="21" t="inlineStr">
         <is>
           <t>Full administrative access to target systems and platforms</t>
         </is>
       </c>
-      <c r="F21" s="7" t="inlineStr">
+      <c r="F21" s="21" t="inlineStr">
         <is>
           <t>Access Requirements</t>
         </is>
       </c>
-      <c r="G21" s="7" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="H21" s="7" t="inlineStr">
+      <c r="G21" s="21" t="inlineStr">
+        <is>
+          <t>Draft</t>
+        </is>
+      </c>
+      <c r="H21" s="21" t="inlineStr">
         <is>
           <t>Security Team</t>
         </is>
       </c>
-      <c r="I21" s="7" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-      <c r="J21" s="7" t="inlineStr">
+      <c r="I21" s="21" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+      <c r="J21" s="21" t="inlineStr">
         <is>
           <t>Follow principle of least privilege</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="6" t="inlineStr">
+      <c r="A22" s="20" t="inlineStr">
         <is>
           <t>REQ-021</t>
         </is>
       </c>
-      <c r="B22" s="6" t="inlineStr">
+      <c r="B22" s="20" t="inlineStr">
         <is>
           <t>Access</t>
         </is>
       </c>
-      <c r="C22" s="6" t="inlineStr">
+      <c r="C22" s="20" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="D22" s="6" t="inlineStr">
+      <c r="D22" s="20" t="inlineStr">
         <is>
           <t>API access and service accounts</t>
         </is>
       </c>
-      <c r="E22" s="6" t="inlineStr">
+      <c r="E22" s="20" t="inlineStr">
         <is>
           <t>Programmatic access to all required APIs and services</t>
         </is>
       </c>
-      <c r="F22" s="6" t="inlineStr">
+      <c r="F22" s="20" t="inlineStr">
         <is>
           <t>API Requirements</t>
         </is>
       </c>
-      <c r="G22" s="6" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="H22" s="6" t="inlineStr">
+      <c r="G22" s="20" t="inlineStr">
+        <is>
+          <t>Draft</t>
+        </is>
+      </c>
+      <c r="H22" s="20" t="inlineStr">
         <is>
           <t>Integration Team</t>
         </is>
       </c>
-      <c r="I22" s="6" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-      <c r="J22" s="6" t="inlineStr">
+      <c r="I22" s="20" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+      <c r="J22" s="20" t="inlineStr">
         <is>
           <t>API rate limits and quota considerations</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="7" t="inlineStr">
+      <c r="A23" s="21" t="inlineStr">
         <is>
           <t>REQ-022</t>
         </is>
       </c>
-      <c r="B23" s="7" t="inlineStr">
+      <c r="B23" s="21" t="inlineStr">
         <is>
           <t>Access</t>
         </is>
       </c>
-      <c r="C23" s="7" t="inlineStr">
+      <c r="C23" s="21" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="D23" s="7" t="inlineStr">
+      <c r="D23" s="21" t="inlineStr">
         <is>
           <t>Network access and firewall rules</t>
         </is>
       </c>
-      <c r="E23" s="7" t="inlineStr">
+      <c r="E23" s="21" t="inlineStr">
         <is>
           <t>Required network ports and firewall configurations</t>
         </is>
       </c>
-      <c r="F23" s="7" t="inlineStr">
+      <c r="F23" s="21" t="inlineStr">
         <is>
           <t>Network Access</t>
         </is>
       </c>
-      <c r="G23" s="7" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="H23" s="7" t="inlineStr">
+      <c r="G23" s="21" t="inlineStr">
+        <is>
+          <t>Draft</t>
+        </is>
+      </c>
+      <c r="H23" s="21" t="inlineStr">
         <is>
           <t>Security Team</t>
         </is>
       </c>
-      <c r="I23" s="7" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-      <c r="J23" s="7" t="inlineStr">
+      <c r="I23" s="21" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+      <c r="J23" s="21" t="inlineStr">
         <is>
           <t>Document all required network connections</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="6" t="inlineStr">
+      <c r="A24" s="20" t="inlineStr">
         <is>
           <t>REQ-023</t>
         </is>
       </c>
-      <c r="B24" s="6" t="inlineStr">
+      <c r="B24" s="20" t="inlineStr">
         <is>
           <t>Access</t>
         </is>
       </c>
-      <c r="C24" s="6" t="inlineStr">
+      <c r="C24" s="20" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
-      <c r="D24" s="6" t="inlineStr">
+      <c r="D24" s="20" t="inlineStr">
         <is>
           <t>Security clearances and approvals</t>
         </is>
       </c>
-      <c r="E24" s="6" t="inlineStr">
+      <c r="E24" s="20" t="inlineStr">
         <is>
           <t>Appropriate security clearances for sensitive environments</t>
         </is>
       </c>
-      <c r="F24" s="6" t="inlineStr">
+      <c r="F24" s="20" t="inlineStr">
         <is>
           <t>Security Clearance</t>
         </is>
       </c>
-      <c r="G24" s="6" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="H24" s="6" t="inlineStr">
+      <c r="G24" s="20" t="inlineStr">
+        <is>
+          <t>Draft</t>
+        </is>
+      </c>
+      <c r="H24" s="20" t="inlineStr">
         <is>
           <t>HR/Security</t>
         </is>
       </c>
-      <c r="I24" s="6" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-      <c r="J24" s="6" t="inlineStr">
+      <c r="I24" s="20" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+      <c r="J24" s="20" t="inlineStr">
         <is>
           <t>Allow sufficient time for clearance processing</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="7" t="inlineStr">
+      <c r="A25" s="21" t="inlineStr">
         <is>
           <t>REQ-024</t>
         </is>
       </c>
-      <c r="B25" s="7" t="inlineStr">
+      <c r="B25" s="21" t="inlineStr">
         <is>
           <t>Skills</t>
         </is>
       </c>
-      <c r="C25" s="7" t="inlineStr">
+      <c r="C25" s="21" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="D25" s="7" t="inlineStr">
+      <c r="D25" s="21" t="inlineStr">
         <is>
           <t>Technical expertise requirements</t>
         </is>
       </c>
-      <c r="E25" s="7" t="inlineStr">
+      <c r="E25" s="21" t="inlineStr">
         <is>
           <t>Subject matter expertise in relevant technologies and platforms</t>
         </is>
       </c>
-      <c r="F25" s="7" t="inlineStr">
+      <c r="F25" s="21" t="inlineStr">
         <is>
           <t>Skills Requirements</t>
         </is>
       </c>
-      <c r="G25" s="7" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="H25" s="7" t="inlineStr">
+      <c r="G25" s="21" t="inlineStr">
+        <is>
+          <t>Draft</t>
+        </is>
+      </c>
+      <c r="H25" s="21" t="inlineStr">
         <is>
           <t>Technical Lead</t>
         </is>
       </c>
-      <c r="I25" s="7" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-      <c r="J25" s="7" t="inlineStr">
+      <c r="I25" s="21" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+      <c r="J25" s="21" t="inlineStr">
         <is>
           <t>Consider training and knowledge transfer needs</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="6" t="inlineStr">
+      <c r="A26" s="20" t="inlineStr">
         <is>
           <t>REQ-025</t>
         </is>
       </c>
-      <c r="B26" s="6" t="inlineStr">
+      <c r="B26" s="20" t="inlineStr">
         <is>
           <t>Skills</t>
         </is>
       </c>
-      <c r="C26" s="6" t="inlineStr">
+      <c r="C26" s="20" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
-      <c r="D26" s="6" t="inlineStr">
+      <c r="D26" s="20" t="inlineStr">
         <is>
           <t>Professional certifications</t>
         </is>
       </c>
-      <c r="E26" s="6" t="inlineStr">
+      <c r="E26" s="20" t="inlineStr">
         <is>
           <t>Industry-standard certifications for key technologies</t>
         </is>
       </c>
-      <c r="F26" s="6" t="inlineStr">
+      <c r="F26" s="20" t="inlineStr">
         <is>
           <t>Certification Requirements</t>
         </is>
       </c>
-      <c r="G26" s="6" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="H26" s="6" t="inlineStr">
+      <c r="G26" s="20" t="inlineStr">
+        <is>
+          <t>Draft</t>
+        </is>
+      </c>
+      <c r="H26" s="20" t="inlineStr">
         <is>
           <t>Training Team</t>
         </is>
       </c>
-      <c r="I26" s="6" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-      <c r="J26" s="6" t="inlineStr">
+      <c r="I26" s="20" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+      <c r="J26" s="20" t="inlineStr">
         <is>
           <t>Certification maintenance and renewal</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="7" t="inlineStr">
+      <c r="A27" s="21" t="inlineStr">
         <is>
           <t>REQ-026</t>
         </is>
       </c>
-      <c r="B27" s="7" t="inlineStr">
+      <c r="B27" s="21" t="inlineStr">
         <is>
           <t>Skills</t>
         </is>
       </c>
-      <c r="C27" s="7" t="inlineStr">
+      <c r="C27" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
-      <c r="D27" s="7" t="inlineStr">
+      <c r="D27" s="21" t="inlineStr">
         <is>
           <t>Experience level requirements</t>
         </is>
       </c>
-      <c r="E27" s="7" t="inlineStr">
+      <c r="E27" s="21" t="inlineStr">
         <is>
           <t>Minimum years of experience with similar implementations</t>
         </is>
       </c>
-      <c r="F27" s="7" t="inlineStr">
+      <c r="F27" s="21" t="inlineStr">
         <is>
           <t>Experience Requirements</t>
         </is>
       </c>
-      <c r="G27" s="7" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="H27" s="7" t="inlineStr">
+      <c r="G27" s="21" t="inlineStr">
+        <is>
+          <t>Draft</t>
+        </is>
+      </c>
+      <c r="H27" s="21" t="inlineStr">
         <is>
           <t>HR/Technical Lead</t>
         </is>
       </c>
-      <c r="I27" s="7" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-      <c r="J27" s="7" t="inlineStr">
+      <c r="I27" s="21" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+      <c r="J27" s="21" t="inlineStr">
         <is>
           <t>Consider mentorship and shadowing programs</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="6" t="inlineStr">
+      <c r="A28" s="20" t="inlineStr">
         <is>
           <t>REQ-027</t>
         </is>
       </c>
-      <c r="B28" s="6" t="inlineStr">
+      <c r="B28" s="20" t="inlineStr">
         <is>
           <t>Skills</t>
         </is>
       </c>
-      <c r="C28" s="6" t="inlineStr">
+      <c r="C28" s="20" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="D28" s="6" t="inlineStr">
+      <c r="D28" s="20" t="inlineStr">
         <is>
           <t>Recommended training programs</t>
         </is>
       </c>
-      <c r="E28" s="6" t="inlineStr">
+      <c r="E28" s="20" t="inlineStr">
         <is>
           <t>Specific training courses and learning paths</t>
         </is>
       </c>
-      <c r="F28" s="6" t="inlineStr">
+      <c r="F28" s="20" t="inlineStr">
         <is>
           <t>Training Requirements</t>
         </is>
       </c>
-      <c r="G28" s="6" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="H28" s="6" t="inlineStr">
+      <c r="G28" s="20" t="inlineStr">
+        <is>
+          <t>Draft</t>
+        </is>
+      </c>
+      <c r="H28" s="20" t="inlineStr">
         <is>
           <t>Training Team</t>
         </is>
       </c>
-      <c r="I28" s="6" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-      <c r="J28" s="6" t="inlineStr">
+      <c r="I28" s="20" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+      <c r="J28" s="20" t="inlineStr">
         <is>
           <t>Budget for external training if needed</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="7" t="inlineStr">
+      <c r="A29" s="21" t="inlineStr">
         <is>
           <t>REQ-028</t>
         </is>
       </c>
-      <c r="B29" s="7" t="inlineStr">
+      <c r="B29" s="21" t="inlineStr">
         <is>
           <t>Knowledge</t>
         </is>
       </c>
-      <c r="C29" s="7" t="inlineStr">
+      <c r="C29" s="21" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="D29" s="7" t="inlineStr">
+      <c r="D29" s="21" t="inlineStr">
         <is>
           <t>Domain and business expertise</t>
         </is>
       </c>
-      <c r="E29" s="7" t="inlineStr">
+      <c r="E29" s="21" t="inlineStr">
         <is>
           <t>Understanding of business processes and industry requirements</t>
         </is>
       </c>
-      <c r="F29" s="7" t="inlineStr">
+      <c r="F29" s="21" t="inlineStr">
         <is>
           <t>Domain Knowledge</t>
         </is>
       </c>
-      <c r="G29" s="7" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="H29" s="7" t="inlineStr">
+      <c r="G29" s="21" t="inlineStr">
+        <is>
+          <t>Draft</t>
+        </is>
+      </c>
+      <c r="H29" s="21" t="inlineStr">
         <is>
           <t>Business Analyst</t>
         </is>
       </c>
-      <c r="I29" s="7" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-      <c r="J29" s="7" t="inlineStr">
+      <c r="I29" s="21" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+      <c r="J29" s="21" t="inlineStr">
         <is>
           <t>Subject matter expert involvement required</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="6" t="inlineStr">
+      <c r="A30" s="20" t="inlineStr">
         <is>
           <t>REQ-029</t>
         </is>
       </c>
-      <c r="B30" s="6" t="inlineStr">
+      <c r="B30" s="20" t="inlineStr">
         <is>
           <t>Knowledge</t>
         </is>
       </c>
-      <c r="C30" s="6" t="inlineStr">
+      <c r="C30" s="20" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="D30" s="6" t="inlineStr">
+      <c r="D30" s="20" t="inlineStr">
         <is>
           <t>Process and workflow understanding</t>
         </is>
       </c>
-      <c r="E30" s="6" t="inlineStr">
+      <c r="E30" s="20" t="inlineStr">
         <is>
           <t>Knowledge of existing processes and integration points</t>
         </is>
       </c>
-      <c r="F30" s="6" t="inlineStr">
+      <c r="F30" s="20" t="inlineStr">
         <is>
           <t>Process Knowledge</t>
         </is>
       </c>
-      <c r="G30" s="6" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="H30" s="6" t="inlineStr">
+      <c r="G30" s="20" t="inlineStr">
+        <is>
+          <t>Draft</t>
+        </is>
+      </c>
+      <c r="H30" s="20" t="inlineStr">
         <is>
           <t>Process Owner</t>
         </is>
       </c>
-      <c r="I30" s="6" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-      <c r="J30" s="6" t="inlineStr">
+      <c r="I30" s="20" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+      <c r="J30" s="20" t="inlineStr">
         <is>
           <t>Document current state processes</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="7" t="inlineStr">
+      <c r="A31" s="21" t="inlineStr">
         <is>
           <t>REQ-030</t>
         </is>
       </c>
-      <c r="B31" s="7" t="inlineStr">
+      <c r="B31" s="21" t="inlineStr">
         <is>
           <t>Knowledge</t>
         </is>
       </c>
-      <c r="C31" s="7" t="inlineStr">
+      <c r="C31" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
-      <c r="D31" s="7" t="inlineStr">
+      <c r="D31" s="21" t="inlineStr">
         <is>
           <t>Stakeholder and organizational awareness</t>
         </is>
       </c>
-      <c r="E31" s="7" t="inlineStr">
+      <c r="E31" s="21" t="inlineStr">
         <is>
           <t>Understanding of key stakeholders and organizational structure</t>
         </is>
       </c>
-      <c r="F31" s="7" t="inlineStr">
+      <c r="F31" s="21" t="inlineStr">
         <is>
           <t>Stakeholder Knowledge</t>
         </is>
       </c>
-      <c r="G31" s="7" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="H31" s="7" t="inlineStr">
+      <c r="G31" s="21" t="inlineStr">
+        <is>
+          <t>Draft</t>
+        </is>
+      </c>
+      <c r="H31" s="21" t="inlineStr">
         <is>
           <t>Project Manager</t>
         </is>
       </c>
-      <c r="I31" s="7" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-      <c r="J31" s="7" t="inlineStr">
+      <c r="I31" s="21" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+      <c r="J31" s="21" t="inlineStr">
         <is>
           <t>Stakeholder mapping and communication plan</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="6" t="inlineStr">
+      <c r="A32" s="20" t="inlineStr">
         <is>
           <t>REQ-031</t>
         </is>
       </c>
-      <c r="B32" s="6" t="inlineStr">
+      <c r="B32" s="20" t="inlineStr">
         <is>
           <t>Knowledge</t>
         </is>
       </c>
-      <c r="C32" s="6" t="inlineStr">
+      <c r="C32" s="20" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="D32" s="6" t="inlineStr">
+      <c r="D32" s="20" t="inlineStr">
         <is>
           <t>Compliance and regulatory requirements</t>
         </is>
       </c>
-      <c r="E32" s="6" t="inlineStr">
+      <c r="E32" s="20" t="inlineStr">
         <is>
           <t>Knowledge of applicable compliance frameworks and regulations</t>
         </is>
       </c>
-      <c r="F32" s="6" t="inlineStr">
+      <c r="F32" s="20" t="inlineStr">
         <is>
           <t>Compliance Knowledge</t>
         </is>
       </c>
-      <c r="G32" s="6" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="H32" s="6" t="inlineStr">
+      <c r="G32" s="20" t="inlineStr">
+        <is>
+          <t>Draft</t>
+        </is>
+      </c>
+      <c r="H32" s="20" t="inlineStr">
         <is>
           <t>Compliance Officer</t>
         </is>
       </c>
-      <c r="I32" s="6" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-      <c r="J32" s="6" t="inlineStr">
+      <c r="I32" s="20" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+      <c r="J32" s="20" t="inlineStr">
         <is>
           <t>Regular compliance training and updates</t>
         </is>
@@ -2307,6 +2456,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J32"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" fitToHeight="0" fitToWidth="1"/>
 </worksheet>
 </file>